--- a/lab3.02/data_ready.xlsx
+++ b/lab3.02/data_ready.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilllalayants/Desktop/физика/lab3.02/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AB9DE6-091F-3941-82D2-9B35017F39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -176,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,14 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>100</v>
       </c>
@@ -506,31 +456,31 @@
         <v>0.74</v>
       </c>
       <c r="D2">
-        <v>10.433999999999999</v>
+        <v>10.434</v>
       </c>
       <c r="E2">
-        <v>9.4129367244116621E-2</v>
+        <v>0.09412936724411662</v>
       </c>
       <c r="F2">
         <v>134.4135016170319</v>
       </c>
       <c r="G2">
-        <v>0.24355729312717439</v>
+        <v>0.2435572931271744</v>
       </c>
       <c r="H2">
-        <v>144.83342952988451</v>
+        <v>144.8334295298845</v>
       </c>
       <c r="I2">
-        <v>0.13828565336776341</v>
+        <v>0.1382856533677634</v>
       </c>
       <c r="J2">
-        <v>7.204137907848876E-2</v>
+        <v>0.07204137907848876</v>
       </c>
       <c r="K2">
-        <v>7.0434258772166846E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.007043425877216685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>200</v>
       </c>
@@ -538,22 +488,22 @@
         <v>12.12</v>
       </c>
       <c r="C3">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="D3">
         <v>25.0884</v>
       </c>
       <c r="E3">
-        <v>8.1969994510186453E-2</v>
+        <v>0.08196999451018645</v>
       </c>
       <c r="F3">
-        <v>99.313870891468866</v>
+        <v>99.31387089146887</v>
       </c>
       <c r="G3">
         <v>0.1884185250694014</v>
       </c>
       <c r="H3">
-        <v>124.49511814909221</v>
+        <v>124.4951181490922</v>
       </c>
       <c r="I3">
         <v>0.1239107348533733</v>
@@ -562,10 +512,10 @@
         <v>0.2015211549898267</v>
       </c>
       <c r="K3">
-        <v>1.962946476037639E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.01962946476037639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>300</v>
       </c>
@@ -576,31 +526,31 @@
         <v>2.94</v>
       </c>
       <c r="D4">
-        <v>31.869599999999998</v>
+        <v>31.8696</v>
       </c>
       <c r="E4">
-        <v>7.4877440602033871E-2</v>
+        <v>0.07487744060203387</v>
       </c>
       <c r="F4">
-        <v>79.444389897944262</v>
+        <v>79.44438989794426</v>
       </c>
       <c r="G4">
-        <v>0.15693164111817959</v>
+        <v>0.1569316411181796</v>
       </c>
       <c r="H4">
         <v>111.3471188726204</v>
       </c>
       <c r="I4">
-        <v>0.11497936828733871</v>
+        <v>0.1149793682873387</v>
       </c>
       <c r="J4">
-        <v>0.28621845201453638</v>
+        <v>0.2862184520145364</v>
       </c>
       <c r="K4">
-        <v>2.7871844041698009E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.02787184404169801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>400</v>
       </c>
@@ -611,16 +561,16 @@
         <v>3.69</v>
       </c>
       <c r="D5">
-        <v>35.940600000000003</v>
+        <v>35.9406</v>
       </c>
       <c r="E5">
-        <v>6.9437005823824061E-2</v>
+        <v>0.06943700582382406</v>
       </c>
       <c r="F5">
-        <v>64.139058930657072</v>
+        <v>64.13905893065707</v>
       </c>
       <c r="G5">
-        <v>0.13242956089574709</v>
+        <v>0.1324295608957471</v>
       </c>
       <c r="H5">
         <v>100.0480569944025</v>
@@ -629,13 +579,13 @@
         <v>0.107595285310763</v>
       </c>
       <c r="J5">
-        <v>0.35923336324273453</v>
+        <v>0.3592333632427345</v>
       </c>
       <c r="K5">
-        <v>3.4978544600514978E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.03497854460051498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>500</v>
       </c>
@@ -646,31 +596,31 @@
         <v>4.37</v>
       </c>
       <c r="D6">
-        <v>38.150100000000002</v>
+        <v>38.1501</v>
       </c>
       <c r="E6">
-        <v>6.5084492093824553E-2</v>
+        <v>0.06508449209382455</v>
       </c>
       <c r="F6">
-        <v>51.526798236450333</v>
+        <v>51.52679823645033</v>
       </c>
       <c r="G6">
         <v>0.1119659912594908</v>
       </c>
       <c r="H6">
-        <v>89.673463815311493</v>
+        <v>89.67346381531149</v>
       </c>
       <c r="I6">
         <v>0.1011059923601207</v>
       </c>
       <c r="J6">
-        <v>0.42543354942296741</v>
+        <v>0.4254335494229674</v>
       </c>
       <c r="K6">
-        <v>4.1422408657392058E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.04142240865739206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>600</v>
       </c>
@@ -678,34 +628,34 @@
         <v>8.01</v>
       </c>
       <c r="C7">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="D7">
-        <v>38.928600000000003</v>
+        <v>38.9286</v>
       </c>
       <c r="E7">
-        <v>6.2460547548032257E-2</v>
+        <v>0.06246054754803226</v>
       </c>
       <c r="F7">
-        <v>43.378017730994053</v>
+        <v>43.37801773099405</v>
       </c>
       <c r="G7">
-        <v>9.8535739633403979E-2</v>
+        <v>0.09853573963340398</v>
       </c>
       <c r="H7">
-        <v>82.277714222296098</v>
+        <v>82.2777142222961</v>
       </c>
       <c r="I7">
-        <v>9.6681917908294654E-2</v>
+        <v>0.09668191790829465</v>
       </c>
       <c r="J7">
-        <v>0.47313662475872359</v>
+        <v>0.4731366247587236</v>
       </c>
       <c r="K7">
-        <v>4.6065943787534612E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.04606594378753461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>700</v>
       </c>
@@ -716,31 +666,31 @@
         <v>5.32</v>
       </c>
       <c r="D8">
-        <v>38.995600000000003</v>
+        <v>38.9956</v>
       </c>
       <c r="E8">
-        <v>6.038075484420144E-2</v>
+        <v>0.06038075484420144</v>
       </c>
       <c r="F8">
-        <v>36.325585166899771</v>
+        <v>36.32558516689977</v>
       </c>
       <c r="G8">
-        <v>8.6710379786944222E-2</v>
+        <v>0.08671037978694422</v>
       </c>
       <c r="H8">
-        <v>75.292839606670469</v>
+        <v>75.29283960667047</v>
       </c>
       <c r="I8">
-        <v>9.2682750922927992E-2</v>
+        <v>0.09268275092292799</v>
       </c>
       <c r="J8">
-        <v>0.51791910364535165</v>
+        <v>0.5179191036453517</v>
       </c>
       <c r="K8">
-        <v>5.0425266771167043E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.05042526677116704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>800</v>
       </c>
@@ -754,28 +704,28 @@
         <v>38.5154</v>
       </c>
       <c r="E9">
-        <v>5.886772365981964E-2</v>
+        <v>0.05886772365981964</v>
       </c>
       <c r="F9">
         <v>30.44035480184802</v>
       </c>
       <c r="G9">
-        <v>7.6632575807633607E-2</v>
+        <v>0.07663257580763361</v>
       </c>
       <c r="H9">
-        <v>68.924277457129449</v>
+        <v>68.92427745712945</v>
       </c>
       <c r="I9">
-        <v>8.9208336682692096E-2</v>
+        <v>0.0892083366826921</v>
       </c>
       <c r="J9">
-        <v>0.55880745393314257</v>
+        <v>0.5588074539331426</v>
       </c>
       <c r="K9">
-        <v>5.4405573519652202E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.0544055735196522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>900</v>
       </c>
@@ -786,31 +736,31 @@
         <v>6.03</v>
       </c>
       <c r="D10">
-        <v>37.868400000000001</v>
+        <v>37.8684</v>
       </c>
       <c r="E10">
-        <v>5.8041862287298962E-2</v>
+        <v>0.05804186228729896</v>
       </c>
       <c r="F10">
-        <v>26.663917520110409</v>
+        <v>26.66391752011041</v>
       </c>
       <c r="G10">
-        <v>7.0024485250931329E-2</v>
+        <v>0.07002448525093133</v>
       </c>
       <c r="H10">
-        <v>64.507371450189709</v>
+        <v>64.50737145018971</v>
       </c>
       <c r="I10">
-        <v>8.6905740641217005E-2</v>
+        <v>0.08690574064121701</v>
       </c>
       <c r="J10">
-        <v>0.58703988627471249</v>
+        <v>0.5870398862747125</v>
       </c>
       <c r="K10">
-        <v>5.7153905403516829E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.05715390540351683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -821,31 +771,31 @@
         <v>6.27</v>
       </c>
       <c r="D11">
-        <v>37.118399999999987</v>
+        <v>37.11839999999999</v>
       </c>
       <c r="E11">
-        <v>5.7487892445086022E-2</v>
+        <v>0.05748789244508602</v>
       </c>
       <c r="F11">
-        <v>23.694529163880819</v>
+        <v>23.69452916388082</v>
       </c>
       <c r="G11">
-        <v>6.4724569928988396E-2</v>
+        <v>0.0647245699289884</v>
       </c>
       <c r="H11">
-        <v>60.809496653682018</v>
+        <v>60.80949665368202</v>
       </c>
       <c r="I11">
-        <v>8.5051456894186903E-2</v>
+        <v>0.0850514568941869</v>
       </c>
       <c r="J11">
-        <v>0.61040465786773579</v>
+        <v>0.6104046578677358</v>
       </c>
       <c r="K11">
-        <v>5.9428399985040049E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.05942839998504005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -856,31 +806,31 @@
         <v>6.51</v>
       </c>
       <c r="D12">
-        <v>36.195599999999999</v>
+        <v>36.1956</v>
       </c>
       <c r="E12">
-        <v>5.7074493232772347E-2</v>
+        <v>0.05707449323277235</v>
       </c>
       <c r="F12">
-        <v>20.900383399166419</v>
+        <v>20.90038339916642</v>
       </c>
       <c r="G12">
-        <v>5.9629970975013102E-2</v>
+        <v>0.0596299709750131</v>
       </c>
       <c r="H12">
         <v>57.11162185717432</v>
       </c>
       <c r="I12">
-        <v>8.3268905956413217E-2</v>
+        <v>0.08326890595641322</v>
       </c>
       <c r="J12">
-        <v>0.63376942946075931</v>
+        <v>0.6337694294607593</v>
       </c>
       <c r="K12">
-        <v>6.1702904965675168E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.06170290496567517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -891,31 +841,31 @@
         <v>6.73</v>
       </c>
       <c r="D13">
-        <v>35.332500000000003</v>
+        <v>35.3325</v>
       </c>
       <c r="E13">
-        <v>5.6903583171692952E-2</v>
+        <v>0.05690358317169295</v>
       </c>
       <c r="F13">
-        <v>18.634737379002271</v>
+        <v>18.63473737900227</v>
       </c>
       <c r="G13">
-        <v>5.5402308154504448E-2</v>
+        <v>0.05540230815450445</v>
       </c>
       <c r="H13">
-        <v>53.927340782403817</v>
+        <v>53.92734078240382</v>
       </c>
       <c r="I13">
-        <v>8.1795000976056381E-2</v>
+        <v>0.08179500097605638</v>
       </c>
       <c r="J13">
-        <v>0.65518713675436402</v>
+        <v>0.655187136754364</v>
       </c>
       <c r="K13">
-        <v>6.3787876049842485E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.06378787604984248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -926,31 +876,31 @@
         <v>6.93</v>
       </c>
       <c r="D14">
-        <v>34.372799999999998</v>
+        <v>34.3728</v>
       </c>
       <c r="E14">
-        <v>5.6814121875150413E-2</v>
+        <v>0.05681412187515041</v>
       </c>
       <c r="F14">
-        <v>16.632901772453959</v>
+        <v>16.63290177245396</v>
       </c>
       <c r="G14">
-        <v>5.1576491600937052E-2</v>
+        <v>0.05157649160093705</v>
       </c>
       <c r="H14">
-        <v>50.948497196328177</v>
+        <v>50.94849719632818</v>
       </c>
       <c r="I14">
-        <v>8.0470255582417105E-2</v>
+        <v>0.08047025558241711</v>
       </c>
       <c r="J14">
-        <v>0.67465777974855012</v>
+        <v>0.6746577797485501</v>
       </c>
       <c r="K14">
-        <v>6.5683310455269719E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.06568331045526972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -964,28 +914,28 @@
         <v>33.2258</v>
       </c>
       <c r="E15">
-        <v>5.6785170208035432E-2</v>
+        <v>0.05678517020803543</v>
       </c>
       <c r="F15">
-        <v>14.681705325259379</v>
+        <v>14.68170532525938</v>
       </c>
       <c r="G15">
-        <v>4.7745515918922073E-2</v>
+        <v>0.04774551591892207</v>
       </c>
       <c r="H15">
-        <v>47.866934865905101</v>
+        <v>47.8669348659051</v>
       </c>
       <c r="I15">
-        <v>7.9157688143685775E-2</v>
+        <v>0.07915768814368578</v>
       </c>
       <c r="J15">
-        <v>0.69412842274273634</v>
+        <v>0.6941284227427363</v>
       </c>
       <c r="K15">
-        <v>6.757875020604466E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.06757875020604466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -996,28 +946,28 @@
         <v>7.16</v>
       </c>
       <c r="D16">
-        <v>32.578000000000003</v>
+        <v>32.578</v>
       </c>
       <c r="E16">
-        <v>5.6556009603067142E-2</v>
+        <v>0.05655600960306714</v>
       </c>
       <c r="F16">
-        <v>13.996758298006149</v>
+        <v>13.99675829800615</v>
       </c>
       <c r="G16">
-        <v>4.6372163620634087E-2</v>
+        <v>0.04637216362063409</v>
       </c>
       <c r="H16">
-        <v>46.737028678083313</v>
+        <v>46.73702867808331</v>
       </c>
       <c r="I16">
-        <v>7.8691733613012071E-2</v>
+        <v>0.07869173361301207</v>
       </c>
       <c r="J16">
-        <v>0.69704901919186413</v>
+        <v>0.6970490191918641</v>
       </c>
       <c r="K16">
-        <v>6.7863066602011815E-2</v>
+        <v>0.06786306660201182</v>
       </c>
     </row>
   </sheetData>
